--- a/biology/Zoologie/Goniobranchus_gleniei/Goniobranchus_gleniei.xlsx
+++ b/biology/Zoologie/Goniobranchus_gleniei/Goniobranchus_gleniei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniobranchus gleniei est une espèce de nudibranches de la famille des Chromodorididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale de l'océan Indien, des côtes orientales de l'Afrique au Sri Lanka.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe sur les sommets ou sur les pentes jusqu'à la zone des 30 m de profondeur.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 5 cm.
 Le corps de cet animal peut être décrit en deux parties distinctes, le pied et le manteau.
@@ -611,7 +629,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce nudibranche est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
@@ -642,7 +662,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniobranchus gleniei se nourrit principalement, d'après les observations actuelles, d'éponges.
 </t>
@@ -673,11 +695,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Goniobranchus gleniei (Kelaart, 1858)[1].
-L'espèce Goniobranchus gleniei a été décrite pour la première fois en 1858 par le naturaliste sri-lankais Edward Frederick Kelaart (1819-1860) sous le protonyme Doris gleniei[1],[2].
-Goniobranchus gleniei a pour synonymes[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Goniobranchus gleniei (Kelaart, 1858).
+L'espèce Goniobranchus gleniei a été décrite pour la première fois en 1858 par le naturaliste sri-lankais Edward Frederick Kelaart (1819-1860) sous le protonyme Doris gleniei,.
+Goniobranchus gleniei a pour synonymes :
 Chromodoris gleniei (Kelaart, 1858)
 Doris gleniei Kelaart, 1858</t>
         </is>
@@ -707,9 +731,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, gleniei, lui a été donnée en l'honneur du révérend Owen Glenie, aumônier colonial de Trinquemalay et ami de l'auteur avec lequel il a souvent partagé les activités zoologiques[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, gleniei, lui a été donnée en l'honneur du révérend Owen Glenie, aumônier colonial de Trinquemalay et ami de l'auteur avec lequel il a souvent partagé les activités zoologiques.
 </t>
         </is>
       </c>
@@ -738,7 +764,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(en) E. F. Kelaart, « Description of New and Little known Species of Ceylon Nudibranchiate Molluscs, and Zoophytes », Journal of the Ceylon Branch of the Royal Asiatic Society, vol. 3, no 9,‎ mai 1858, p. 84-139 (OCLC 1695542, lire en ligne)</t>
         </is>
